--- a/articles/course_docs/spring_2023_schedule.xlsx
+++ b/articles/course_docs/spring_2023_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4646AE41-FFE8-A940-BABD-71F0D2B96208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDFEA2A-76DB-4848-8DEA-30FB26C26EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>Week</t>
   </si>
@@ -146,9 +146,6 @@
     <t>SPRING BREAK! [no class]</t>
   </si>
   <si>
-    <t>Wrapping up!</t>
-  </si>
-  <si>
     <t>[L0: Getting started](https://teaching-cognition.github.io/cognition/articles/modules/L0_Getting_Started.html)</t>
   </si>
   <si>
@@ -209,12 +206,6 @@
     <t>**Assessment 2**</t>
   </si>
   <si>
-    <t>May 16 (Tuesday)</t>
-  </si>
-  <si>
-    <t>**Final projects due**</t>
-  </si>
-  <si>
     <t>[L8: Memory I](https://teaching-cognition.github.io/cognition/articles/modules/L8_Memory_I.html)</t>
   </si>
   <si>
@@ -231,6 +222,9 @@
   </si>
   <si>
     <t xml:space="preserve">[L12: Social Cognition](https://teaching-cognition.github.io/cognition/articles/modules/L12_Social_Cognition.html) </t>
+  </si>
+  <si>
+    <t>Wrapping up + Project presentations</t>
   </si>
 </sst>
 </file>
@@ -560,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -591,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:16381" ht="85">
@@ -602,7 +596,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:16381" s="1" customFormat="1" ht="85">
@@ -613,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -8814,7 +8808,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:16381" ht="102">
@@ -8825,7 +8819,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:16381" ht="18">
@@ -8836,7 +8830,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:16381" ht="68">
@@ -8847,7 +8841,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:16381" ht="18">
@@ -8858,7 +8852,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:16381" ht="68">
@@ -8869,7 +8863,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:16381" ht="18">
@@ -8880,7 +8874,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:16381" ht="85">
@@ -8891,7 +8885,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:16381" ht="18">
@@ -8902,7 +8896,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -8914,7 +8908,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:16381" ht="18">
@@ -8925,7 +8919,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:16381" ht="18">
@@ -8980,7 +8974,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18">
@@ -8991,7 +8985,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="51">
@@ -9002,7 +8996,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1"/>
     </row>
@@ -9014,7 +9008,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85">
@@ -9025,7 +9019,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18">
@@ -9036,7 +9030,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="68">
@@ -9047,7 +9041,7 @@
         <v>27</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18">
@@ -9058,7 +9052,7 @@
         <v>28</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="85">
@@ -9069,7 +9063,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18">
@@ -9080,7 +9074,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="68">
@@ -9091,7 +9085,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18">
@@ -9102,11 +9096,11 @@
         <v>32</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="18">
+    <row r="32" spans="1:4" ht="34">
       <c r="A32">
         <v>16</v>
       </c>
@@ -9114,19 +9108,11 @@
         <v>33</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18">
-      <c r="A33">
-        <v>16</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>57</v>
-      </c>
+    <row r="33" spans="2:2" ht="18">
+      <c r="B33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/articles/course_docs/spring_2023_schedule.xlsx
+++ b/articles/course_docs/spring_2023_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/cognition/articles/course_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDFEA2A-76DB-4848-8DEA-30FB26C26EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE4B604-97C0-B148-AFCC-BBF2759722C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>Week</t>
   </si>
@@ -226,12 +226,48 @@
   <si>
     <t>Wrapping up + Project presentations</t>
   </si>
+  <si>
+    <t>February 12 (Sunday)</t>
+  </si>
+  <si>
+    <t>February 19 (Sunday)</t>
+  </si>
+  <si>
+    <t>March 5 (Sunday)</t>
+  </si>
+  <si>
+    <t>April 2 (Sunday)</t>
+  </si>
+  <si>
+    <t>April 30 (Sunday)</t>
+  </si>
+  <si>
+    <t>May 14 (Sunday)</t>
+  </si>
+  <si>
+    <t>**[Project Milestone 1: Project and partner selection due](https://teaching-cognition.github.io/cognition/articles/modules/Final_projects.html#milestone-1-project-and-partner-selection-0.5-points)**</t>
+  </si>
+  <si>
+    <t>**[Project Milestone 2: Instance of Cognition due](https://teaching-cognition.github.io/cognition/articles/modules/Final_projects.html#milestone-2-selection-of-instance-of-cognition-0.5-points)**</t>
+  </si>
+  <si>
+    <t>**[Project Milestone 3: QALMRI due](https://teaching-cognition.github.io/cognition/articles/modules/Final_projects.html#milestone-3-qalmri-for-research-articles-2-points)**</t>
+  </si>
+  <si>
+    <t>**[Project Milestone 4: Project plan/outline due](https://teaching-cognition.github.io/cognition/articles/modules/Final_projects.html#milestone-4-project-planoutline-0.5-points)**</t>
+  </si>
+  <si>
+    <t>**[Project Milestone 5: First Draft due](https://teaching-cognition.github.io/cognition/articles/modules/Final_projects.html#milestone-5-first-draft-0.5-points)**</t>
+  </si>
+  <si>
+    <t>**[Project Milestone 6: Final Project due](https://teaching-cognition.github.io/cognition/articles/modules/Final_projects.html#milestone-6-final-submission-6-points)**</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -266,12 +302,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,13 +589,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFA33"/>
+  <dimension ref="A1:XFA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
@@ -566,7 +603,7 @@
     <col min="4" max="4" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16381" ht="17">
+    <row r="1" spans="1:16381" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16381" ht="85">
+    <row r="2" spans="1:16381" ht="86" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -588,7 +625,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:16381" ht="85">
+    <row r="3" spans="1:16381" ht="86" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -599,7 +636,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:16381" s="1" customFormat="1" ht="85">
+    <row r="4" spans="1:16381" s="1" customFormat="1" ht="86" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8800,7 +8837,7 @@
       <c r="XEZ4"/>
       <c r="XFA4"/>
     </row>
-    <row r="5" spans="1:16381" ht="18">
+    <row r="5" spans="1:16381" ht="19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8811,7 +8848,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:16381" ht="102">
+    <row r="6" spans="1:16381" ht="103" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8822,7 +8859,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:16381" ht="18">
+    <row r="7" spans="1:16381" ht="19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -8833,286 +8870,350 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:16381" ht="68">
+    <row r="8" spans="1:16381" ht="120" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:16381" ht="18">
+    <row r="9" spans="1:16381" ht="69" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16381" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:16381" ht="68">
-      <c r="A10">
+    <row r="11" spans="1:16381" ht="103" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16381" ht="69" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>5</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:16381" ht="18">
-      <c r="A11">
+    <row r="13" spans="1:16381" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>5</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:16381" ht="85">
-      <c r="A12">
+    <row r="14" spans="1:16381" ht="86" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>6</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:16381" ht="18">
-      <c r="A13">
+    <row r="15" spans="1:16381" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>6</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D15" s="1"/>
     </row>
-    <row r="14" spans="1:16381" ht="85">
-      <c r="A14">
+    <row r="16" spans="1:16381" ht="103" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="86" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>7</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:16381" ht="18">
-      <c r="A15">
+    <row r="18" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>7</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:16381" ht="18">
-      <c r="A16">
+    <row r="19" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>8</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18">
-      <c r="A17">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18">
-      <c r="A18">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18">
-      <c r="A19">
-        <v>9</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="51">
+    <row r="20" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="52" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>10</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18">
-      <c r="A21">
+    <row r="24" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>10</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="51">
-      <c r="A22">
+    <row r="25" spans="1:4" ht="103" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="52" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>11</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D26" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="18">
-      <c r="A23">
+    <row r="27" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>11</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="85">
-      <c r="A24">
+    <row r="28" spans="1:4" ht="86" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>12</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18">
-      <c r="A25">
+    <row r="29" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>12</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="68">
-      <c r="A26">
+    <row r="30" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>13</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18">
-      <c r="A27">
+    <row r="31" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>13</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="85">
-      <c r="A28">
+    <row r="32" spans="1:4" ht="86" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>14</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18">
-      <c r="A29">
+    <row r="33" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>14</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="68">
-      <c r="A30">
+    <row r="34" spans="1:4" ht="103" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>14</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>15</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18">
-      <c r="A31">
+    <row r="36" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>15</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D36" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="34">
-      <c r="A32">
+    <row r="37" spans="1:4" ht="35" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>16</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="18">
-      <c r="B33" s="2"/>
+    <row r="38" spans="1:4" ht="103" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/articles/course_docs/spring_2023_schedule.xlsx
+++ b/articles/course_docs/spring_2023_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/cognition/articles/course_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE4B604-97C0-B148-AFCC-BBF2759722C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF128CFD-32EA-7F49-B5AB-900F0D5CE56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,46 +182,19 @@
     <t>L6 continued…</t>
   </si>
   <si>
-    <t>[L7: Cognitive Models](https://teaching-cognition.github.io/cognition/articles/modules/L7_Cognitive_Models.html)</t>
-  </si>
-  <si>
     <t>L8 continued…</t>
   </si>
   <si>
     <t>L9 continued…</t>
   </si>
   <si>
-    <t>L10 continued…</t>
-  </si>
-  <si>
     <t>L12 continued…</t>
-  </si>
-  <si>
-    <t>L13 continued…</t>
   </si>
   <si>
     <t>**Assessment 1**</t>
   </si>
   <si>
     <t>**Assessment 2**</t>
-  </si>
-  <si>
-    <t>[L8: Memory I](https://teaching-cognition.github.io/cognition/articles/modules/L8_Memory_I.html)</t>
-  </si>
-  <si>
-    <t>[L9: Memory II](https://teaching-cognition.github.io/cognition/articles/modules/L9_Memory_II.html)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[L10: Semantic Memory](https://teaching-cognition.github.io/cognition/articles/modules/L10_Semantic_Memory.html) </t>
-  </si>
-  <si>
-    <t>[L11: Language Learning](https://teaching-cognition.github.io/cognition/articles/modules/L11_Language.html)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[L13: Judgment and Decision Making](https://teaching-cognition.github.io/cognition/articles/modules/L13_JDM.html) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[L12: Social Cognition](https://teaching-cognition.github.io/cognition/articles/modules/L12_Social_Cognition.html) </t>
   </si>
   <si>
     <t>Wrapping up + Project presentations</t>
@@ -262,12 +235,39 @@
   <si>
     <t>**[Project Milestone 6: Final Project due](https://teaching-cognition.github.io/cognition/articles/modules/Final_projects.html#milestone-6-final-submission-6-points)**</t>
   </si>
+  <si>
+    <t>L0-L6 Review</t>
+  </si>
+  <si>
+    <t>[L7: Memory I](https://teaching-cognition.github.io/cognition/articles/modules/L7_Memory_I.html)</t>
+  </si>
+  <si>
+    <t>L7 continued…</t>
+  </si>
+  <si>
+    <t>[L8: Memory II](https://teaching-cognition.github.io/cognition/articles/modules/L8_Memory_II.html)</t>
+  </si>
+  <si>
+    <t>L7-L12 Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[L10: Social Cognition](https://teaching-cognition.github.io/cognition/articles/modules/L10_Social_Cognition.html) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[L11: Judgment and Decision Making](https://teaching-cognition.github.io/cognition/articles/modules/L11_JDM.html) </t>
+  </si>
+  <si>
+    <t>[L12: Cognitive Models](https://teaching-cognition.github.io/cognition/articles/modules/L12_Cognitive_Models.html)</t>
+  </si>
+  <si>
+    <t>[L9: Language Learning](https://teaching-cognition.github.io/cognition/articles/modules/L9_Language_Learning.html)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -591,11 +591,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
@@ -603,7 +603,7 @@
     <col min="4" max="4" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16381" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16381" ht="17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16381" ht="86" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16381" ht="86">
       <c r="A2">
         <v>1</v>
       </c>
@@ -625,7 +625,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:16381" ht="86" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16381" ht="86">
       <c r="A3">
         <v>1</v>
       </c>
@@ -636,7 +636,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:16381" s="1" customFormat="1" ht="86" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16381" s="1" customFormat="1" ht="86">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8837,7 +8837,7 @@
       <c r="XEZ4"/>
       <c r="XFA4"/>
     </row>
-    <row r="5" spans="1:16381" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16381" ht="18">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:16381" ht="103" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16381" ht="103">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:16381" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16381" ht="18">
       <c r="A7">
         <v>3</v>
       </c>
@@ -8870,18 +8870,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:16381" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16381" ht="120">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:16381" ht="69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16381" ht="69">
       <c r="A9">
         <v>4</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:16381" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16381" ht="18">
       <c r="A10">
         <v>4</v>
       </c>
@@ -8903,18 +8903,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:16381" ht="103" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16381" ht="103">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:16381" ht="69" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16381" ht="69">
       <c r="A12">
         <v>5</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:16381" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16381" ht="18">
       <c r="A13">
         <v>5</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:16381" ht="86" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16381" ht="86">
       <c r="A14">
         <v>6</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:16381" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16381" ht="18">
       <c r="A15">
         <v>6</v>
       </c>
@@ -8959,19 +8959,19 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:16381" ht="103" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16381" ht="103">
       <c r="A16">
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="86" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="18">
       <c r="A17">
         <v>7</v>
       </c>
@@ -8979,10 +8979,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="19">
       <c r="A18">
         <v>7</v>
       </c>
@@ -8990,10 +8990,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="19">
       <c r="A19">
         <v>8</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="19">
       <c r="A20">
         <v>8</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="19">
       <c r="A21">
         <v>9</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="19">
       <c r="A22">
         <v>9</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="52" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="51">
       <c r="A23">
         <v>10</v>
       </c>
@@ -9045,10 +9045,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="18">
       <c r="A24">
         <v>10</v>
       </c>
@@ -9056,21 +9056,21 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="103" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="103">
       <c r="A25">
         <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="52" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="51">
       <c r="A26">
         <v>11</v>
       </c>
@@ -9078,11 +9078,11 @@
         <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="18">
       <c r="A27">
         <v>11</v>
       </c>
@@ -9090,10 +9090,10 @@
         <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="86" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="85">
       <c r="A28">
         <v>12</v>
       </c>
@@ -9101,10 +9101,10 @@
         <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="18">
       <c r="A29">
         <v>12</v>
       </c>
@@ -9112,10 +9112,10 @@
         <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="85">
       <c r="A30">
         <v>13</v>
       </c>
@@ -9123,10 +9123,10 @@
         <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="68">
       <c r="A31">
         <v>13</v>
       </c>
@@ -9134,10 +9134,10 @@
         <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="86" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="85">
       <c r="A32">
         <v>14</v>
       </c>
@@ -9145,10 +9145,10 @@
         <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="18">
       <c r="A33">
         <v>14</v>
       </c>
@@ -9156,21 +9156,21 @@
         <v>30</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="103" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="103">
       <c r="A34">
         <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="18">
       <c r="A35">
         <v>15</v>
       </c>
@@ -9178,10 +9178,10 @@
         <v>31</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="18">
       <c r="A36">
         <v>15</v>
       </c>
@@ -9189,11 +9189,11 @@
         <v>32</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="35">
       <c r="A37">
         <v>16</v>
       </c>
@@ -9201,18 +9201,18 @@
         <v>33</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="103" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="103">
       <c r="A38">
         <v>16</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/articles/course_docs/spring_2023_schedule.xlsx
+++ b/articles/course_docs/spring_2023_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF128CFD-32EA-7F49-B5AB-900F0D5CE56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CFDAC0-CEC1-CC4F-B992-905F776A2D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,9 +188,6 @@
     <t>L9 continued…</t>
   </si>
   <si>
-    <t>L12 continued…</t>
-  </si>
-  <si>
     <t>**Assessment 1**</t>
   </si>
   <si>
@@ -248,19 +245,22 @@
     <t>[L8: Memory II](https://teaching-cognition.github.io/cognition/articles/modules/L8_Memory_II.html)</t>
   </si>
   <si>
-    <t>L7-L12 Review</t>
+    <t>Guest Lecture: Dr. Marta Stojanovic</t>
   </si>
   <si>
-    <t xml:space="preserve">[L10: Social Cognition](https://teaching-cognition.github.io/cognition/articles/modules/L10_Social_Cognition.html) </t>
+    <t>[L9: Cognitive Models](https://teaching-cognition.github.io/cognition/articles/modules/L9_Cognitive_Models.html)</t>
   </si>
   <si>
-    <t xml:space="preserve">[L11: Judgment and Decision Making](https://teaching-cognition.github.io/cognition/articles/modules/L11_JDM.html) </t>
+    <t>[L10: Language](https://teaching-cognition.github.io/cognition/articles/modules/L10_Language.html)</t>
   </si>
   <si>
-    <t>[L12: Cognitive Models](https://teaching-cognition.github.io/cognition/articles/modules/L12_Cognitive_Models.html)</t>
+    <t>L10 continued…</t>
   </si>
   <si>
-    <t>[L9: Language Learning](https://teaching-cognition.github.io/cognition/articles/modules/L9_Language_Learning.html)</t>
+    <t xml:space="preserve">[L11: Social Cognition](https://teaching-cognition.github.io/cognition/articles/modules/L10_Social_Cognition.html) </t>
+  </si>
+  <si>
+    <t>[L12: Judgment and Decision Making](https://teaching-cognition.github.io/cognition/articles/modules/L12_JDM.html) + L7-L12 Review</t>
   </si>
 </sst>
 </file>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="107" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -614,7 +614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16381" ht="86">
+    <row r="2" spans="1:16381" ht="85">
       <c r="A2">
         <v>1</v>
       </c>
@@ -625,7 +625,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:16381" ht="86">
+    <row r="3" spans="1:16381" ht="85">
       <c r="A3">
         <v>1</v>
       </c>
@@ -636,7 +636,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:16381" s="1" customFormat="1" ht="86">
+    <row r="4" spans="1:16381" s="1" customFormat="1" ht="85">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:16381" ht="103">
+    <row r="6" spans="1:16381" ht="102">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8870,18 +8870,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:16381" ht="120">
+    <row r="8" spans="1:16381" ht="119">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:16381" ht="69">
+    <row r="9" spans="1:16381" ht="68">
       <c r="A9">
         <v>4</v>
       </c>
@@ -8903,18 +8903,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:16381" ht="103">
+    <row r="11" spans="1:16381" ht="102">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:16381" ht="69">
+    <row r="12" spans="1:16381" ht="68">
       <c r="A12">
         <v>5</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:16381" ht="86">
+    <row r="14" spans="1:16381" ht="85">
       <c r="A14">
         <v>6</v>
       </c>
@@ -8959,15 +8959,15 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:16381" ht="103">
+    <row r="16" spans="1:16381" ht="102">
       <c r="A16">
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -8979,10 +8979,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19">
+    <row r="18" spans="1:4" ht="18">
       <c r="A18">
         <v>7</v>
       </c>
@@ -8990,10 +8990,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19">
+    <row r="19" spans="1:4" ht="18">
       <c r="A19">
         <v>8</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19">
+    <row r="20" spans="1:4" ht="18">
       <c r="A20">
         <v>8</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19">
+    <row r="21" spans="1:4" ht="18">
       <c r="A21">
         <v>9</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19">
+    <row r="22" spans="1:4" ht="18">
       <c r="A22">
         <v>9</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
@@ -9056,18 +9056,18 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="103">
+    <row r="25" spans="1:4" ht="102">
       <c r="A25">
         <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51">
@@ -9078,7 +9078,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" s="1"/>
     </row>
@@ -9101,7 +9101,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18">
@@ -9115,7 +9115,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="85">
+    <row r="30" spans="1:4" ht="51">
       <c r="A30">
         <v>13</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="68">
+    <row r="31" spans="1:4" ht="18">
       <c r="A31">
         <v>13</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18">
+    <row r="33" spans="1:4" ht="34">
       <c r="A33">
         <v>14</v>
       </c>
@@ -9156,21 +9156,21 @@
         <v>30</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="103">
+    <row r="34" spans="1:4" ht="102">
       <c r="A34">
         <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18">
+    <row r="35" spans="1:4" ht="85">
       <c r="A35">
         <v>15</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>31</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18">
@@ -9189,11 +9189,11 @@
         <v>32</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="35">
+    <row r="37" spans="1:4" ht="34">
       <c r="A37">
         <v>16</v>
       </c>
@@ -9201,18 +9201,18 @@
         <v>33</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="103">
+    <row r="38" spans="1:4" ht="102">
       <c r="A38">
         <v>16</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/articles/course_docs/spring_2023_schedule.xlsx
+++ b/articles/course_docs/spring_2023_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CFDAC0-CEC1-CC4F-B992-905F776A2D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF63B70F-45B1-9148-BF4C-8B5380C6CAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,9 +206,6 @@
     <t>March 5 (Sunday)</t>
   </si>
   <si>
-    <t>April 2 (Sunday)</t>
-  </si>
-  <si>
     <t>April 30 (Sunday)</t>
   </si>
   <si>
@@ -261,6 +258,9 @@
   </si>
   <si>
     <t>[L12: Judgment and Decision Making](https://teaching-cognition.github.io/cognition/articles/modules/L12_JDM.html) + L7-L12 Review</t>
+  </si>
+  <si>
+    <t>April 10 (Sunday)</t>
   </si>
 </sst>
 </file>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="107" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8878,7 +8878,7 @@
         <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:16381" ht="68">
@@ -8911,7 +8911,7 @@
         <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:16381" ht="68">
@@ -8967,7 +8967,7 @@
         <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -8979,7 +8979,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18">
@@ -9045,7 +9045,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
@@ -9056,41 +9056,41 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="51">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="D25" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="102">
-      <c r="A25">
-        <v>10</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="51">
+    <row r="26" spans="1:4" ht="18">
       <c r="A26">
         <v>11</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="1"/>
+        <v>47</v>
+      </c>
     </row>
-    <row r="27" spans="1:4" ht="18">
+    <row r="27" spans="1:4" ht="102">
       <c r="A27">
         <v>11</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="85">
@@ -9101,7 +9101,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18">
@@ -9123,7 +9123,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18">
@@ -9134,7 +9134,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="85">
@@ -9145,7 +9145,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34">
@@ -9156,7 +9156,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="102">
@@ -9164,10 +9164,10 @@
         <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="85">
@@ -9178,7 +9178,7 @@
         <v>31</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18">
@@ -9209,10 +9209,10 @@
         <v>16</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/articles/course_docs/spring_2023_schedule.xlsx
+++ b/articles/course_docs/spring_2023_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/cognition/articles/course_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF63B70F-45B1-9148-BF4C-8B5380C6CAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185DFCB5-56D9-CA44-AB04-519E8351CA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,7 +260,7 @@
     <t>[L12: Judgment and Decision Making](https://teaching-cognition.github.io/cognition/articles/modules/L12_JDM.html) + L7-L12 Review</t>
   </si>
   <si>
-    <t>April 10 (Sunday)</t>
+    <t>April 9 (Sunday)</t>
   </si>
 </sst>
 </file>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="107" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/articles/course_docs/spring_2023_schedule.xlsx
+++ b/articles/course_docs/spring_2023_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185DFCB5-56D9-CA44-AB04-519E8351CA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99793C4B-AC79-C349-AA35-E8FCD1CD1BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -591,7 +591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="107" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
